--- a/projects/test_building/input/ID_SubSector.xlsx
+++ b/projects/test_building/input/ID_SubSector.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83211A97-9EA3-5A4D-A4E4-442E7A563875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07842362-7FFB-FD46-8B88-468F1EEEE640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="-28300" windowWidth="14940" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>agriculture</t>
   </si>
@@ -71,42 +71,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Iron and steel</t>
-  </si>
-  <si>
-    <t>Non-ferrous metals</t>
-  </si>
-  <si>
-    <t>Paper and printing</t>
-  </si>
-  <si>
-    <t>Non-metallic mineral products</t>
-  </si>
-  <si>
-    <t>Chemical industry</t>
-  </si>
-  <si>
-    <t>Food, drink and tobacco</t>
-  </si>
-  <si>
-    <t>Engineering and other metal</t>
-  </si>
-  <si>
-    <t>Other non-classified</t>
-  </si>
-  <si>
-    <t>Refineries</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Energy</t>
   </si>
   <si>
     <t>Residential</t>
@@ -220,8 +184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C30" totalsRowShown="0">
-  <autoFilter ref="A1:C30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_subsector"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
@@ -494,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,293 +473,197 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>29</v>
+      <c r="A11" s="1">
+        <v>310</v>
       </c>
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>32</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>33</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>37</v>
+      <c r="A18">
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>310</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>311</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>312</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>313</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>314</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>315</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>316</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>61</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/projects/test_building/input/ID_SubSector.xlsx
+++ b/projects/test_building/input/ID_SubSector.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07842362-7FFB-FD46-8B88-468F1EEEE640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,54 +21,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>manufacturing</t>
-  </si>
-  <si>
-    <t>construction</t>
-  </si>
-  <si>
-    <t>retail_wholesale</t>
-  </si>
-  <si>
-    <t>transporting_storage</t>
-  </si>
-  <si>
-    <t>hotel_restaurant</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>professional_tech_science</t>
-  </si>
-  <si>
-    <t>administrative</t>
-  </si>
-  <si>
-    <t>public_administration</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
     <t>Real estate and housing</t>
   </si>
   <si>
     <t>Health and social services</t>
   </si>
   <si>
-    <t>other tertiary sectors</t>
-  </si>
-  <si>
-    <t>art, entertainment and recreation</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -128,12 +85,54 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Transporting &amp; storage</t>
+  </si>
+  <si>
+    <t>Retail &amp; wholesale</t>
+  </si>
+  <si>
+    <t>Hotel &amp; restaurant</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Professional tech. &amp; science</t>
+  </si>
+  <si>
+    <t>Information &amp; communication</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Art, entertainment and recreation</t>
+  </si>
+  <si>
+    <t>Other tertiary sectors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,12 +183,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0">
-  <autoFilter ref="A1:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_subsector"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column1"/>
+    <tableColumn id="1" name="id_subsector"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -457,213 +456,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>314</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/projects/test_building/input/ID_SubSector.xlsx
+++ b/projects/test_building/input/ID_SubSector.xlsx
@@ -39,9 +39,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Other tertiary sectors</t>
+  </si>
+  <si>
+    <t>NACE_ID</t>
   </si>
 </sst>
 </file>
@@ -188,7 +188,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="id_subsector"/>
     <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="Column1"/>
+    <tableColumn id="3" name="NACE_ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -486,10 +486,10 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -497,10 +497,10 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -508,10 +508,10 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -519,7 +519,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -530,10 +530,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -541,10 +541,10 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -552,10 +552,10 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -563,10 +563,10 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -585,10 +585,10 @@
         <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -596,10 +596,10 @@
         <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -607,10 +607,10 @@
         <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -618,10 +618,10 @@
         <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -640,10 +640,10 @@
         <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -651,10 +651,10 @@
         <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
